--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11200,12 +11200,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14964,12 +14964,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15012,12 +15012,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -15031,7 +15031,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,16 +8542,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8560,12 +8560,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11200,12 +11200,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14964,12 +14964,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15012,12 +15012,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -15031,7 +15031,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11296,12 +11296,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -15012,12 +15012,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -15031,7 +15031,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15060,12 +15060,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11296,12 +11296,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -15012,12 +15012,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -15031,7 +15031,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15060,12 +15060,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/02/2022</t>
+          <t>03/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,16 +8590,16 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8608,12 +8608,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11248,12 +11248,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11296,12 +11296,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -15012,12 +15012,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -15031,7 +15031,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15060,12 +15060,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8488,26 +8488,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Pacific Hydro Chacayes S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>300</v>
+        <v>25500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8521,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8547,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,22 +8580,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Pacific Hydro Chacayes S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11296,12 +11296,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11344,12 +11344,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -15060,12 +15060,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15108,12 +15108,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -8488,22 +8488,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Pacific Hydro Chacayes S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>25500</v>
+        <v>300</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8517,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,26 +8584,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Pacific Hydro Chacayes S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,16 +8638,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11296,12 +11296,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11344,12 +11344,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -15060,12 +15060,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15108,12 +15108,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>04/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8536,26 +8536,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Pacific Hydro Chacayes S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>300</v>
+        <v>25500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8595,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,22 +8628,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Pacific Hydro Chacayes S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11344,12 +11344,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -15108,12 +15108,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8536,22 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Pacific Hydro Chacayes S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>25500</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,26 +8632,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Pacific Hydro Chacayes S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11344,12 +11344,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -15108,12 +15108,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/05/2022</t>
+          <t>19/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8536,22 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Pacific Hydro Chacayes S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>25500</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,26 +8632,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Pacific Hydro Chacayes S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11344,12 +11344,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -15108,12 +15108,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8536,22 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Pacific Hydro Chacayes S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>25500</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8565,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,26 +8632,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Modificacion transporte de acido sulfurico de fundicion caletones (e-seia)</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 x 220 kV CHACAYES MAITENES</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Pacific Hydro Chacayes S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3306076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11344,12 +11344,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -15108,12 +15108,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -11571,7 +11571,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -10707,7 +10707,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11344,12 +11344,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -15108,12 +15108,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11344,12 +11344,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -15108,12 +15108,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -14259,7 +14259,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,16 +8686,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8704,12 +8704,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11344,12 +11344,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -15108,12 +15108,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F196" t="n">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>COX ENERGY PMGD SPA</t>
+          <t>Cox Energy PMGD SpA</t>
         </is>
       </c>
       <c r="F6" t="n">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2022</t>
+          <t>02/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -7687,7 +7687,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Proyecto inmobiliario comuna de Machalí, Inmobiliaria Mañihual S.A.</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MAÑIHUAL S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>105134</v>
+        <v>74200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>Proyecto inmobiliario comuna de Machalí, Inmobiliaria Mañihual S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>INMOBILIARIA MAÑIHUAL S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>35050</v>
+        <v>105134</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Proyecto inmobiliario comuna de Machalí, Inmobiliaria Mañihual S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>INMOBILIARIA MAÑIHUAL S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>74200</v>
+        <v>105134</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Proyecto inmobiliario comuna de Machalí, Inmobiliaria Mañihual S.A.</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MAÑIHUAL S.A.</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>105134</v>
+        <v>35050</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,16 +8734,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8752,12 +8752,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,7 +11379,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Proyecto inmobiliario comuna de Machalí, Inmobiliaria Mañihual S.A.</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MAÑIHUAL S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>105134</v>
+        <v>74200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>Proyecto inmobiliario comuna de Machalí, Inmobiliaria Mañihual S.A.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>INMOBILIARIA MAÑIHUAL S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>35050</v>
+        <v>105134</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,12 +15252,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Proyecto inmobiliario comuna de Machalí, Inmobiliaria Mañihual S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>INMOBILIARIA MAÑIHUAL S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>74200</v>
+        <v>105134</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Proyecto inmobiliario comuna de Machalí, Inmobiliaria Mañihual S.A.</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MAÑIHUAL S.A.</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>105134</v>
+        <v>35050</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128947973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,12 +15252,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/05/2023</t>
+          <t>23/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,12 +15252,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">

--- a/data/Machalí.xlsx
+++ b/data/Machalí.xlsx
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
+          <t>Las Pircas Oriente</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>74200</v>
+        <v>35050</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Las Pircas Oriente</t>
+          <t>PROYECTO MEJORAMIENTO DE LA GENERACIÓN, TRANSPORTE Y DISPOSICIÓN DE RESIDUOS ARSENICALES DE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Rosa de Apoquindo S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>35050</v>
+        <v>74200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,16 +8782,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>36841</v>
+        <v>1750</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Plan de Cierre Cerro El Minero (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,16 +8830,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1750</v>
+        <v>36841</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8848,12 +8848,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
+          <t>Aumento Capacidad de Beneficio</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -15223,7 +15223,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>20000</v>
+        <v>274000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15252,12 +15252,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Aumento Capacidad de Beneficio</t>
+          <t>Transporte de Ácido Sulfúrico Excedente de la Fundición Caletones - Fase II</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>274000</v>
+        <v>20000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
